--- a/Finance Tools.xlsx
+++ b/Finance Tools.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="THOME" sheetId="1" r:id="rId1"/>
-    <sheet name="IT CALC" sheetId="2" r:id="rId2"/>
+    <sheet name="TAKE HOME CALCULATOR" sheetId="1" r:id="rId1"/>
+    <sheet name="INCOME TAX" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Year</t>
   </si>
@@ -82,13 +82,74 @@
   </si>
   <si>
     <t>IT SUMMARY</t>
+  </si>
+  <si>
+    <t>EXEMPTIONS</t>
+  </si>
+  <si>
+    <t>TAXABLE INCOME</t>
+  </si>
+  <si>
+    <t>BONUS</t>
+  </si>
+  <si>
+    <t>MEDICAL REIMBURSE</t>
+  </si>
+  <si>
+    <t>MEDICAL</t>
+  </si>
+  <si>
+    <t>sic</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>House Rent Allowance</t>
+  </si>
+  <si>
+    <t>Conveyance Allowance</t>
+  </si>
+  <si>
+    <t>Special Allowance</t>
+  </si>
+  <si>
+    <t>Medical Reimbursement</t>
+  </si>
+  <si>
+    <t>Gratuity</t>
+  </si>
+  <si>
+    <t>Variable Pay</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>LTA</t>
+  </si>
+  <si>
+    <t>PF Employer Contribution</t>
+  </si>
+  <si>
+    <t>Number of Months Tax</t>
+  </si>
+  <si>
+    <t>Net Taxable Income</t>
+  </si>
+  <si>
+    <t>CONFIG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,16 +165,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF185081"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F3F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -145,26 +237,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -172,14 +250,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -239,9 +339,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -253,10 +350,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C13:D19" totalsRowCount="1">
-  <autoFilter ref="C13:D18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C13:D20" totalsRowCount="1">
+  <autoFilter ref="C13:D19"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="ELEMENT" dataDxfId="1"/>
+    <tableColumn id="1" name="ELEMENT" dataDxfId="6"/>
     <tableColumn id="2" name="VALUE" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Table2[VALUE])</totalsRowFormula>
     </tableColumn>
@@ -269,7 +366,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C4:D8" totalsRowShown="0">
   <autoFilter ref="C4:D8"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="ELEMENT" dataDxfId="2"/>
+    <tableColumn id="1" name="ELEMENT" dataDxfId="5"/>
     <tableColumn id="2" name="VALUE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -277,26 +374,26 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="C23:D28" totalsRowShown="0">
-  <autoFilter ref="C23:D28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="C24:D29" totalsRowShown="0">
+  <autoFilter ref="C24:D29"/>
   <tableColumns count="2">
     <tableColumn id="1" name="ELEMENT"/>
-    <tableColumn id="2" name="VALUE" dataDxfId="3"/>
+    <tableColumn id="2" name="VALUE" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="D7:F9" totalsRowShown="0">
-  <autoFilter ref="D7:F9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="D10:F12" totalsRowShown="0">
+  <autoFilter ref="D10:F12"/>
   <tableColumns count="3">
     <tableColumn id="1" name="SLAB AMOUNT">
-      <calculatedColumnFormula>THOME!D6-'IT CALC'!D7-E2</calculatedColumnFormula>
+      <calculatedColumnFormula>'TAKE HOME CALCULATOR'!D6-'INCOME TAX'!D10-E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="PERCENTAGE" dataDxfId="0"/>
-    <tableColumn id="3" name="INCOME TAX">
-      <calculatedColumnFormula>D8*E8</calculatedColumnFormula>
+    <tableColumn id="2" name="PERCENTAGE" dataDxfId="1"/>
+    <tableColumn id="3" name="INCOME TAX" dataDxfId="0" dataCellStyle="Comma">
+      <calculatedColumnFormula>D11*E11</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -304,13 +401,38 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="E13:F15" totalsRowShown="0">
-  <autoFilter ref="E13:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="D29:E31" totalsRowShown="0">
+  <autoFilter ref="D29:E31"/>
   <tableColumns count="2">
     <tableColumn id="1" name="ELEMENT"/>
     <tableColumn id="2" name="VALUE">
-      <calculatedColumnFormula>F13/12</calculatedColumnFormula>
+      <calculatedColumnFormula>E29/12</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D17:E23" totalsRowCount="1">
+  <autoFilter ref="D17:E22"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="ELEMENT"/>
+    <tableColumn id="2" name="VALUE" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+      <calculatedColumnFormula>'TAKE HOME CALCULATOR'!D14</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Table1[VALUE])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="D3:E7" totalsRowShown="0">
+  <autoFilter ref="D3:E7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="ELEMENT"/>
+    <tableColumn id="2" name="VALUE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D25"/>
+  <dimension ref="C3:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,64 +826,72 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>7512</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>7512</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D18">
-        <f>'IT CALC'!F14</f>
-        <v>57500</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D19">
+        <f>'INCOME TAX'!E30</f>
+        <v>38217.850799999993</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D20">
         <f>SUM(Table2[VALUE])</f>
-        <v>120212</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
+        <v>115929.85079999999</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24">
-        <f>D7-Table2[[#Totals],[VALUE]]</f>
-        <v>829788</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <f>D7-Table2[[#Totals],[VALUE]]</f>
+        <v>834070.14919999999</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D25">
-        <f>D24/12</f>
-        <v>69149</v>
+      <c r="D26">
+        <f>D25/12</f>
+        <v>69505.845766666665</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -775,115 +905,367 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:F15"/>
+  <dimension ref="D2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
     <row r="3" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4">
         <v>250000</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <f>'TAKE HOME CALCULATOR'!D7-Table1[[#Totals],[VALUE]]</f>
+        <v>843888</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="9">
+        <f>12-1.233</f>
+        <v>10.766999999999999</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <f>E5/12*E6</f>
+        <v>757178.50799999991</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11">
         <v>250000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E11" s="1">
         <v>0.05</v>
       </c>
-      <c r="F8">
-        <f>D8*E8</f>
+      <c r="F11" s="10">
+        <f>D11*E11</f>
         <v>12500</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <f>THOME!D7-'IT CALC'!D8-E3</f>
-        <v>450000</v>
-      </c>
-      <c r="E9" s="1">
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>E7-E4-D11</f>
+        <v>257178.50799999991</v>
+      </c>
+      <c r="E12" s="1">
         <v>0.1</v>
       </c>
-      <c r="F9">
-        <f>D9*E9</f>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="10">
+        <f>D12*E12</f>
+        <v>25717.850799999993</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <f>'TAKE HOME CALCULATOR'!D14</f>
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <f>'TAKE HOME CALCULATOR'!D16</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <f>'TAKE HOME CALCULATOR'!D17</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <f>'TAKE HOME CALCULATOR'!D18</f>
+        <v>7512</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <f>'TAKE HOME CALCULATOR'!D6</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="5">
+        <f>SUM(Table1[VALUE])</f>
+        <v>106112</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>3</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>0</v>
       </c>
-      <c r="F14">
-        <f>F9+F8</f>
-        <v>57500</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+      <c r="E30" s="10">
+        <f>F12+F11</f>
+        <v>38217.850799999993</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>1</v>
       </c>
-      <c r="F15">
-        <f>F14/12</f>
-        <v>4791.666666666667</v>
+      <c r="E31" s="10">
+        <f>E30/12</f>
+        <v>3184.8208999999993</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E12:F12"/>
+  <mergeCells count="3">
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F5:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="8">
+        <v>180000</v>
+      </c>
+      <c r="H5" s="8">
+        <v>15000</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="6:9" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="8">
+        <v>90000</v>
+      </c>
+      <c r="I6" s="8">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="7" spans="6:9" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="8">
+        <v>19200</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="8">
+        <v>589692</v>
+      </c>
+      <c r="I8" s="8">
+        <v>49141</v>
+      </c>
+    </row>
+    <row r="9" spans="6:9" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="8">
+        <v>15000</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="10" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="8">
+        <v>7512</v>
+      </c>
+      <c r="I10" s="8">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="11" spans="6:9" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="F11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="8">
+        <v>50004</v>
+      </c>
+      <c r="I11" s="8">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="12" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="8">
+        <v>12000</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="8">
+        <v>15000</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="14" spans="6:9" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="8">
+        <v>21600</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1800</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>